--- a/biology/Zoologie/Graphiurus/Graphiurus.xlsx
+++ b/biology/Zoologie/Graphiurus/Graphiurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Graphiurinae a été créée par le zoologiste danois Herluf Winge (1857-1923) en 1887. Elle ne contient que le seul genre Graphiurus et un nombre encore discuté de sous-genres et d'espèces de loirs appelées loirs africains[1].
-Certains auteurs classent encore les Graphiurinae dans la famille des Myoxidae, un sous-ordre des Myomorpha[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Graphiurinae a été créée par le zoologiste danois Herluf Winge (1857-1923) en 1887. Elle ne contient que le seul genre Graphiurus et un nombre encore discuté de sous-genres et d'espèces de loirs appelées loirs africains.
+Certains auteurs classent encore les Graphiurinae dans la famille des Myoxidae, un sous-ordre des Myomorpha.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Taxons inférieurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre comprend les sous-genres et espèces suivantes :
-Liste d'espèces
-Selon Catalogue of Life                                   (3 mai 2012)[3] et ITIS      (3 mai 2012)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre comprend les sous-genres et espèces suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Graphiurus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphiurus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxons inférieurs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 mai 2012) et ITIS      (3 mai 2012) :
 Graphiurus christyi Dollman, 1914
 Graphiurus crassicaudatus (Jentink, 1888)
 Graphiurus hueti Rochebrune, 1883
@@ -531,20 +580,54 @@
 Graphiurus platyops Thomas, 1897
 Graphiurus rupicola (Thomas &amp; Hinton, 1925)
 Graphiurus surdus Dollman, 1912
-Selon NCBI  (3 mai 2012)[5] :
+Selon NCBI  (3 mai 2012) :
 Graphiurus lorraineus
 Graphiurus microtis
 Graphiurus murinus
 Graphiurus ocularis
 Graphiurus parvus
 Graphiurus platyops
-Selon Paleobiology Database                   (3 mai 2012)[6] :
+Selon Paleobiology Database                   (3 mai 2012) :
 Graphiurus murinus
 Graphiurus ocularis
 Graphiurus parvus
-Graphiurus platyops
-Liste des sous-genres et espèces
-Selon Mammal Species of the World (version 3, 2005)  (3 mai 2012)[7] :
+Graphiurus platyops</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Graphiurus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphiurus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxons inférieurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres et espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (3 mai 2012) :
 sous-genre Graphiurus (Aethoglis)
 Graphiurus nagtglasii
 sous-genre Graphiurus (Claviglis)
